--- a/Cleaned Data/cases_by_sex_mx.xlsx
+++ b/Cleaned Data/cases_by_sex_mx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosparedes/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B1B5EF-0AD8-6B4C-936C-6FCA00130311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04C621E-B4AE-184A-9A2A-E261F9C1741E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="460" windowWidth="16140" windowHeight="16200" xr2:uid="{76244051-ABCC-2840-BD5D-27CBA6ECB9C6}"/>
+    <workbookView xWindow="3420" yWindow="2060" windowWidth="19120" windowHeight="16220" xr2:uid="{404BAD5A-26BC-FE47-BFBC-0BCE2E8DB222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,78 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Men</t>
+    <t>Sex</t>
   </si>
   <si>
-    <t>Women</t>
+    <t>Cases</t>
   </si>
   <si>
-    <t>Age</t>
+    <t>Male</t>
   </si>
   <si>
-    <t>0 - 4 Years</t>
+    <t>Female</t>
   </si>
   <si>
-    <t>5 - 9 Years</t>
-  </si>
-  <si>
-    <t>10 -14 Years</t>
-  </si>
-  <si>
-    <t>15 - 19 Years</t>
-  </si>
-  <si>
-    <t>20 - 24 Years</t>
-  </si>
-  <si>
-    <t>25 - 29 Years</t>
-  </si>
-  <si>
-    <t>30 - 34 Years</t>
-  </si>
-  <si>
-    <t>35 39 Years</t>
-  </si>
-  <si>
-    <t>40 - 44 Years</t>
-  </si>
-  <si>
-    <t>45 -49 Years</t>
-  </si>
-  <si>
-    <t>50 - 54 Years</t>
-  </si>
-  <si>
-    <t>55 - 59 years</t>
-  </si>
-  <si>
-    <t>60 - 64 Years</t>
-  </si>
-  <si>
-    <t>65 - 69 Years</t>
-  </si>
-  <si>
-    <t>70 - 74 Years</t>
-  </si>
-  <si>
-    <t>75- 79 Years</t>
-  </si>
-  <si>
-    <t>80 - 84 Years</t>
-  </si>
-  <si>
-    <t>85 - 89 Years</t>
-  </si>
-  <si>
-    <t>90 - 94 Years</t>
-  </si>
-  <si>
-    <t>95 -99 Years</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Prop. Of Cases</t>
   </si>
 </sst>
 </file>
@@ -118,8 +61,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,7 +92,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,330 +408,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA6408D-3C13-E341-9A71-6DDB08D2FBDA}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62050A78-72BF-F441-A6C9-B28BD41B4F1C}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
+      <c r="B2">
+        <v>367016</v>
+      </c>
+      <c r="C2">
+        <f>B2/(B2+B3)</f>
+        <v>0.52048080686607634</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>2244</v>
-      </c>
-      <c r="C2">
-        <v>1931</v>
-      </c>
-      <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B3">
-        <v>1871</v>
+        <v>338132</v>
       </c>
       <c r="C3">
-        <v>1727</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">SUM(B3:C3)</f>
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>3062</v>
-      </c>
-      <c r="C4">
-        <v>2955</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>6017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>6430</v>
-      </c>
-      <c r="C5">
-        <v>7096</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>13526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>18127</v>
-      </c>
-      <c r="C6">
-        <v>19807</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>37934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>34181</v>
-      </c>
-      <c r="C7">
-        <v>35824</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>70005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>39493</v>
-      </c>
-      <c r="C8">
-        <v>38865</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>78358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>40499</v>
-      </c>
-      <c r="C9">
-        <v>37878</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>78377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>38981</v>
-      </c>
-      <c r="C10">
-        <v>36026</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>75007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>39663</v>
-      </c>
-      <c r="C11">
-        <v>36798</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>76461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>35259</v>
-      </c>
-      <c r="C12">
-        <v>31759</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>67018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>31012</v>
-      </c>
-      <c r="C13">
-        <v>26385</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>57397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>24127</v>
-      </c>
-      <c r="C14">
-        <v>20165</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>44292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>18903</v>
-      </c>
-      <c r="C15">
-        <v>14965</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>33868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>13775</v>
-      </c>
-      <c r="C16">
-        <v>10553</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>24328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>9429</v>
-      </c>
-      <c r="C17">
-        <v>7260</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>16689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>5855</v>
-      </c>
-      <c r="C18">
-        <v>4588</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>10443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>2890</v>
-      </c>
-      <c r="C19">
-        <v>2371</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>5261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>952</v>
-      </c>
-      <c r="C20">
-        <v>908</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>263</v>
-      </c>
-      <c r="C21">
-        <v>271</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>534</v>
+        <f>B3/(B2+B3)</f>
+        <v>0.47951919313392366</v>
       </c>
     </row>
   </sheetData>

--- a/Cleaned Data/cases_by_sex_mx.xlsx
+++ b/Cleaned Data/cases_by_sex_mx.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosparedes/covid-data-challenge/Cleaned Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04C621E-B4AE-184A-9A2A-E261F9C1741E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D8F4CB-B220-E642-AA96-778259808F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2060" windowWidth="19120" windowHeight="16220" xr2:uid="{404BAD5A-26BC-FE47-BFBC-0BCE2E8DB222}"/>
+    <workbookView xWindow="12320" yWindow="1140" windowWidth="19860" windowHeight="16220" xr2:uid="{404BAD5A-26BC-FE47-BFBC-0BCE2E8DB222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sex</t>
   </si>
@@ -46,6 +48,18 @@
   </si>
   <si>
     <t>Prop. Of Cases</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Cases Per Capita</t>
+  </si>
+  <si>
+    <t>Risk*num</t>
+  </si>
+  <si>
+    <t>Risk Level</t>
   </si>
 </sst>
 </file>
@@ -89,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,18 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62050A78-72BF-F441-A6C9-B28BD41B4F1C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,8 +446,20 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,8 +470,23 @@
         <f>B2/(B2+B3)</f>
         <v>0.52048080686607634</v>
       </c>
+      <c r="D2" s="3">
+        <v>60230000</v>
+      </c>
+      <c r="E2">
+        <f>D2/B2</f>
+        <v>164.10728687577654</v>
+      </c>
+      <c r="F2">
+        <f>100/E3</f>
+        <v>0.53425817664717967</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>87.675659860768008</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,6 +496,17 @@
       <c r="C3">
         <f>B3/(B2+B3)</f>
         <v>0.47951919313392366</v>
+      </c>
+      <c r="D3" s="3">
+        <v>63290000</v>
+      </c>
+      <c r="E3">
+        <f>D3/B3</f>
+        <v>187.17542261601977</v>
+      </c>
+      <c r="G3">
+        <f>E3*F2</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Cleaned Data/cases_by_sex_mx.xlsx
+++ b/Cleaned Data/cases_by_sex_mx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D8F4CB-B220-E642-AA96-778259808F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA0AED-CA78-6644-AD09-672AB6A3A50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="1140" windowWidth="19860" windowHeight="16220" xr2:uid="{404BAD5A-26BC-FE47-BFBC-0BCE2E8DB222}"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="23820" windowHeight="17320" xr2:uid="{404BAD5A-26BC-FE47-BFBC-0BCE2E8DB222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Sex</t>
   </si>
@@ -116,6 +116,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB4E4"/>
+      <color rgb="FF74F2F1"/>
+      <color rgb="FF61C1BF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,6 +132,1013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>COVID-19 Risk Level Based on Sex Per Capita in Mexico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Risk Level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFB4E4">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-65DF-FD45-BE4C-98E0306301D5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>87.675659860768008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65DF-FD45-BE4C-98E0306301D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="792192768"/>
+        <c:axId val="792194400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="792192768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sex</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792194400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792194400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Risk Level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792192768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>475288</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525318</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135276</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81396BEE-4920-0A46-A205-230AE2C2478D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62050A78-72BF-F441-A6C9-B28BD41B4F1C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +1450,7 @@
     <col min="4" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,11 +1469,15 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -481,12 +1499,15 @@
         <f>100/E3</f>
         <v>0.53425817664717967</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <f>E2*F2</f>
         <v>87.675659860768008</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -504,12 +1525,19 @@
         <f>D3/B3</f>
         <v>187.17542261601977</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <f>E3*F2</f>
         <v>100</v>
       </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cleaned Data/cases_by_sex_mx.xlsx
+++ b/Cleaned Data/cases_by_sex_mx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA0AED-CA78-6644-AD09-672AB6A3A50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D19A956-F3D0-6D48-AA75-A2FBBFF5E0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="460" windowWidth="23820" windowHeight="17320" xr2:uid="{404BAD5A-26BC-FE47-BFBC-0BCE2E8DB222}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Sex</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Avg num</t>
   </si>
 </sst>
 </file>
@@ -257,6 +260,63 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$2:$G$3</c:f>
@@ -278,10 +338,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>87.675659860768008</c:v>
+                  <c:v>46.716585371705868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>53.283414628294132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,13 +1167,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>475288</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>18667</xdr:rowOff>
+      <xdr:rowOff>18666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>525318</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>135276</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182802</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1441,7 +1501,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,7 +1535,9 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1496,15 +1558,19 @@
         <v>164.10728687577654</v>
       </c>
       <c r="F2">
-        <f>100/E3</f>
-        <v>0.53425817664717967</v>
+        <f>50/I2</f>
+        <v>0.28467099944848084</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
         <f>E2*F2</f>
-        <v>87.675659860768008</v>
+        <v>46.716585371705868</v>
+      </c>
+      <c r="I2">
+        <f>SUM(E2:E3)/2</f>
+        <v>175.64135474589816</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1530,7 +1596,7 @@
       </c>
       <c r="H3">
         <f>E3*F2</f>
-        <v>100</v>
+        <v>53.283414628294132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
